--- a/sweetest/testcase/InterUT-TestCase.xlsx
+++ b/sweetest/testcase/InterUT-TestCase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">页面url</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/products,,标签页名=Products,,等待时间=2</t>
+    <t xml:space="preserve">https://&lt;host&gt;/products,,标签页名=Products,,等待时间=2</t>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_003</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">菜单Campaigns</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/campaigns,,标签页名=Campaigns,,等待时间=2</t>
+    <t xml:space="preserve">https://&lt;host&gt;/campaigns,,标签页名=Campaigns,,等待时间=2</t>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_004</t>
@@ -324,7 +324,35 @@
     <t xml:space="preserve">菜单Offers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/offers*,,标签页名=Offers,,等待时间=2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/offers*,,标签页名=Offers,,等待时间=2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_005</t>
@@ -345,7 +373,7 @@
     <t xml:space="preserve">Creative</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/creatives*,,标签页名=Creatives,,等待时间=2</t>
+    <t xml:space="preserve">https://&lt;host&gt;/creatives*,,标签页名=Creatives,,等待时间=2</t>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_006</t>
@@ -360,7 +388,56 @@
     <t xml:space="preserve">新增按钮</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/product/certificate,,标签页名=New Product,,等待时间=2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/product/certificate,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Product,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">调用</t>
@@ -570,6 +647,37 @@
     <t xml:space="preserve">返回上一页</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/products,,标签页名=Products,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">SNIPPET_007</t>
   </si>
   <si>
@@ -597,7 +705,75 @@
     <t xml:space="preserve">Campaigns</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/campaign/new,,标签页名=New Campaign,,等待时间=2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/campaign/new,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Campaign,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">New Campaign</t>
@@ -669,7 +845,35 @@
     <t xml:space="preserve">保存且返回按钮</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/campaigns,,标签页名=Campaigns,,等待时间=10</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/campaigns,,标签页名=Campaigns,,等待时间=10</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_009</t>
@@ -696,7 +900,35 @@
     <t xml:space="preserve">新增广告订单</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/offer/create,,标签页名=New Offer,,等待时间=2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/offer/create,,标签页名=New Offer,,等待时间=2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">New Offer</t>
@@ -854,7 +1086,7 @@
     <t xml:space="preserve">Creatives</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ut-oversea-preview.umlife.com/creative*,,标签页名=New Creative,,等待时间=2</t>
+    <t xml:space="preserve">https://&lt;host&gt;/creative*,,标签页名=New Creative,,等待时间=2</t>
   </si>
   <si>
     <t xml:space="preserve">New Creative</t>
@@ -875,9 +1107,71 @@
     <t xml:space="preserve">保存且提审按钮</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/creatives*,,标签页名=Creatives,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">SNIPPET_013</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">检查</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">innerText=&lt;creative_name&gt;,,等待时间=2</t>
   </si>
   <si>
@@ -890,6 +1184,429 @@
     <t xml:space="preserve">innerText=&lt;product_name&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">SNIPPET_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑产品</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/product/certificate?customer_id*,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Product,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(重命名),,清除文本=否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_product_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTestCompany1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacey1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13625858586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zh.wikipedia.org/wiki/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/product/censor?customer_id*,,标签页名=Products,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑产品检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_product_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑推广计划</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/campaign/*,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=New Campaign,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">new_campaign_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑推广计划检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_campaign_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_campaign_name=innerText</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/offer/edit?id*,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=New Offer,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">new_offer_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告订单检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_offer_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nnerText=600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nnerText=0.35</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*&lt;new_campaign_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_offer_name=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_product_name=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_creative_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">编辑广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">检查</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_creative_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">new_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">offer_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">new_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">campaign_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">new_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">product_name&gt;</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ADVERTISING_001</t>
   </si>
   <si>
@@ -918,6 +1635,18 @@
   </si>
   <si>
     <t xml:space="preserve">新建广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_008</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1659,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0_ ;[RED]\-0\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1011,6 +1740,43 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1084,7 +1850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,6 +1919,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1177,7 +1951,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,8 +2038,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H101" activeCellId="0" sqref="H101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M144" activeCellId="0" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +2418,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1726,7 +2500,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1808,7 +2582,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1892,7 +2666,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1950,7 +2724,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="9" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2552,7 +3326,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2567,7 +3341,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -2580,10 +3354,10 @@
     </row>
     <row r="49" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>34</v>
@@ -2601,7 +3375,7 @@
         <v>73</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2620,16 +3394,16 @@
         <v>2</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
@@ -2640,10 +3414,10 @@
     </row>
     <row r="51" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>34</v>
@@ -2655,7 +3429,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>67</v>
@@ -2685,7 +3459,7 @@
         <v>47</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -2755,17 +3529,17 @@
         <v>35</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
@@ -2789,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -2812,7 +3586,7 @@
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>30</v>
@@ -2838,7 +3612,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="6"/>
@@ -2862,10 +3636,10 @@
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2888,7 +3662,7 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="6"/>
@@ -2900,7 +3674,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2915,7 +3689,7 @@
         <v>47</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2928,10 +3702,10 @@
     </row>
     <row r="62" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>34</v>
@@ -2943,13 +3717,13 @@
         <v>21</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -2972,10 +3746,10 @@
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2994,16 +3768,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="4"/>
@@ -3014,10 +3788,10 @@
     </row>
     <row r="65" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>34</v>
@@ -3044,7 +3818,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3059,7 +3833,7 @@
         <v>47</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3129,17 +3903,17 @@
         <v>35</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="4"/>
@@ -3163,7 +3937,7 @@
         <v>73</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -3186,7 +3960,7 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>30</v>
@@ -3212,10 +3986,10 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -3238,7 +4012,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>30</v>
@@ -3264,7 +4038,7 @@
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="6"/>
@@ -3288,10 +4062,10 @@
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -3314,7 +4088,7 @@
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="6"/>
@@ -3338,7 +4112,7 @@
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="6"/>
@@ -3362,7 +4136,7 @@
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="6"/>
@@ -3386,10 +4160,10 @@
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -3412,10 +4186,10 @@
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -3438,7 +4212,7 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="6"/>
@@ -3478,10 +4252,10 @@
     </row>
     <row r="83" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>34</v>
@@ -3496,10 +4270,10 @@
         <v>61</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -3522,10 +4296,10 @@
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -3548,10 +4322,10 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -3574,10 +4348,10 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -3596,16 +4370,16 @@
         <v>5</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="6"/>
       <c r="J87" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="4"/>
@@ -3616,10 +4390,10 @@
     </row>
     <row r="88" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>34</v>
@@ -3631,7 +4405,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>67</v>
@@ -3646,7 +4420,7 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3661,7 +4435,7 @@
         <v>47</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -3731,17 +4505,17 @@
         <v>35</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="4"/>
@@ -3762,7 +4536,7 @@
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="6"/>
@@ -3812,7 +4586,7 @@
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="6"/>
@@ -3824,7 +4598,7 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3839,7 +4613,7 @@
         <v>47</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -3852,10 +4626,10 @@
     </row>
     <row r="97" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>34</v>
@@ -3867,13 +4641,13 @@
         <v>21</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -3896,10 +4670,10 @@
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -3922,10 +4696,10 @@
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -3951,7 +4725,7 @@
         <v>73</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -3962,484 +4736,2087 @@
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18" t="n">
+    <row r="101" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+    </row>
+    <row r="102" s="9" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+    </row>
+    <row r="103" s="9" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+    </row>
+    <row r="104" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+    </row>
+    <row r="105" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+    </row>
+    <row r="107" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+    </row>
+    <row r="108" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+    </row>
+    <row r="109" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+    </row>
+    <row r="110" s="9" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+    </row>
+    <row r="111" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="11"/>
+      <c r="G111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H111" s="12"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+    </row>
+    <row r="112" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+    </row>
+    <row r="113" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+    </row>
+    <row r="114" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+    </row>
+    <row r="115" s="9" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+    </row>
+    <row r="116" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+    </row>
+    <row r="117" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+    </row>
+    <row r="118" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="12"/>
+      <c r="G118" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+    </row>
+    <row r="119" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+    </row>
+    <row r="120" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H120" s="11"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K120" s="6"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+    </row>
+    <row r="121" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+    </row>
+    <row r="122" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+    </row>
+    <row r="123" s="9" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+    </row>
+    <row r="124" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="12"/>
+      <c r="G124" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+    </row>
+    <row r="125" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="12"/>
+      <c r="G125" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+    </row>
+    <row r="126" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="12"/>
+      <c r="G126" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" s="12"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+    </row>
+    <row r="127" s="9" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+    </row>
+    <row r="128" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+    </row>
+    <row r="129" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+    </row>
+    <row r="130" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+    </row>
+    <row r="131" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+    </row>
+    <row r="132" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H132" s="12"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="K132" s="6"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+    </row>
+    <row r="133" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+    </row>
+    <row r="134" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F134" s="12"/>
+      <c r="G134" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K134" s="6"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+    </row>
+    <row r="135" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H135" s="13"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+    </row>
+    <row r="136" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+    </row>
+    <row r="137" s="9" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I137" s="6"/>
+      <c r="J137" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K137" s="6"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+    </row>
+    <row r="138" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+    </row>
+    <row r="139" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+    </row>
+    <row r="140" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+    </row>
+    <row r="141" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+    </row>
+    <row r="142" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+    </row>
+    <row r="143" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+    </row>
+    <row r="144" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F144" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G144" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H101" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17" t="s">
+      <c r="H144" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I144" s="24"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+    </row>
+    <row r="145" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="23"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+    </row>
+    <row r="146" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H146" s="23"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+    </row>
+    <row r="147" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H147" s="26"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+    </row>
+    <row r="148" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+    </row>
+    <row r="149" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H149" s="23"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+    </row>
+    <row r="150" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H150" s="23"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+    </row>
+    <row r="151" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H151" s="23"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="25"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+    </row>
+    <row r="152" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+    </row>
+    <row r="153" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+    </row>
+    <row r="154" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H154" s="23"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+    </row>
+    <row r="155" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" s="23"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+    </row>
+    <row r="156" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+    </row>
+    <row r="157" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H157" s="23"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+    </row>
+    <row r="158" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H158" s="23"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+    </row>
+    <row r="159" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H159" s="23"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+    </row>
+    <row r="160" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+    </row>
+    <row r="161" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H161" s="23"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+    </row>
+    <row r="162" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G162" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-    </row>
-    <row r="102" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="18" t="n">
+      <c r="H162" s="23"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+    </row>
+    <row r="163" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H163" s="26"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+    </row>
+    <row r="164" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F164" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+    </row>
+    <row r="165" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E165" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F165" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G102" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-    </row>
-    <row r="103" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="18" t="n">
+      <c r="G165" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H165" s="23"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="25"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+    </row>
+    <row r="166" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E166" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F166" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G103" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H103" s="21"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-    </row>
-    <row r="104" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="18" t="n">
+      <c r="G166" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H166" s="23"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="25"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+    </row>
+    <row r="167" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E167" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F167" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G104" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="24"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-    </row>
-    <row r="105" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="18" t="n">
+      <c r="G167" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H167" s="23"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="25"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+    </row>
+    <row r="168" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E168" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F168" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G168" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H105" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-    </row>
-    <row r="106" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="18" t="n">
+      <c r="H168" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+    </row>
+    <row r="169" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E169" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F169" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G106" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="23"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-    </row>
-    <row r="107" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="18" t="n">
+      <c r="G169" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H169" s="23"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="25"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+    </row>
+    <row r="170" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E170" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F170" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H107" s="21"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-    </row>
-    <row r="108" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="18" t="n">
+      <c r="G170" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H170" s="23"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="25"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+    </row>
+    <row r="171" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E171" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F171" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G108" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H108" s="21"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-    </row>
-    <row r="109" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="18" t="n">
+      <c r="G171" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H171" s="23"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="25"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+    </row>
+    <row r="172" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E172" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F172" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G172" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H109" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-    </row>
-    <row r="110" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="18" t="n">
+      <c r="H172" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+    </row>
+    <row r="173" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E173" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F173" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G110" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-    </row>
-    <row r="111" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18" t="n">
+      <c r="G173" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H173" s="23"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="25"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+    </row>
+    <row r="174" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E174" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F174" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G111" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H111" s="21"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-    </row>
-    <row r="112" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18" t="n">
+      <c r="G174" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H174" s="23"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="25"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+    </row>
+    <row r="175" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E175" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F175" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G112" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H112" s="21"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-    </row>
-    <row r="113" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-    </row>
-    <row r="114" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H114" s="21"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-    </row>
-    <row r="115" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-    </row>
-    <row r="116" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G116" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H116" s="21"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="23"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-    </row>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G175" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H175" s="23"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="25"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2:G3 G24 G46:G50 G52 G61 G66 G82 G89 G96" type="none">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2:G3 G24 G46:G50 G52 G61 G66 G82 G89 G96 G102 G110:G113 G115 G118 G122 G127 G136 G139" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4447,26 +6824,14 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G4:G23 G25:G45 G51 G53:G60 G62:G65 G67:G81 G83:G88 G90:G95 G97:G116" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G4:G23 G25:G45 G51 G53:G60 G62:G65 G67:G81 G83:G88 G90:G95 G97:G101 G103:G109 G114 G116:G117 G119:G121 G123:G126 G128:G135 G137:G138 G140:G175" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" display="https://ut-oversea-preview.umlife.com/products,,标签页名=Products,,等待时间=2"/>
-    <hyperlink ref="H16" r:id="rId2" display="https://ut-oversea-preview.umlife.com/campaigns,,标签页名=Campaigns,,等待时间=2"/>
-    <hyperlink ref="H19" r:id="rId3" display="https://ut-oversea-preview.umlife.com/offers*,,标签页名=Offers,,等待时间=2"/>
-    <hyperlink ref="H22" r:id="rId4" display="https://ut-oversea-preview.umlife.com/creatives*,,标签页名=Creatives,,等待时间=2"/>
-    <hyperlink ref="H24" r:id="rId5" display="https://ut-oversea-preview.umlife.com/product/certificate,,标签页名=New Product,,等待时间=2"/>
-    <hyperlink ref="H31" r:id="rId6" display="https://www.google.com.hk/"/>
-    <hyperlink ref="H48" r:id="rId7" display="https://ut-oversea-preview.umlife.com/products,,标签页名=Products,,等待时间=2"/>
-    <hyperlink ref="H52" r:id="rId8" display="https://ut-oversea-preview.umlife.com/campaign/new,,标签页名=New Campaign,,等待时间=2"/>
-    <hyperlink ref="H59" r:id="rId9" display="https://itunes.apple.com/cn/app/id1339119477"/>
-    <hyperlink ref="H61" r:id="rId10" display="https://ut-oversea-preview.umlife.com/campaigns,,标签页名=Campaigns,,等待时间=10"/>
-    <hyperlink ref="H66" r:id="rId11" display="https://ut-oversea-preview.umlife.com/offer/create,,标签页名=New Offer,,等待时间=2"/>
-    <hyperlink ref="H82" r:id="rId12" display="https://ut-oversea-preview.umlife.com/offers*,,标签页名=Offers,,等待时间=2"/>
-    <hyperlink ref="H89" r:id="rId13" display="https://ut-oversea-preview.umlife.com/creative*,,标签页名=New Creative,,等待时间=2"/>
-    <hyperlink ref="H96" r:id="rId14" display="https://ut-oversea-preview.umlife.com/creatives*,,标签页名=Creatives,,等待时间=2"/>
+    <hyperlink ref="H31" r:id="rId1" display="https://www.google.com.hk/"/>
+    <hyperlink ref="H59" r:id="rId2" display="https://itunes.apple.com/cn/app/id1339119477"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sweetest/testcase/InterUT-TestCase.xlsx
+++ b/sweetest/testcase/InterUT-TestCase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -324,6 +324,338 @@
     <t xml:space="preserve">菜单Offers</t>
   </si>
   <si>
+    <t xml:space="preserve">https://&lt;host&gt;/offers*,,标签页名=Offers,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">到Creatives模块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例片段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://&lt;host&gt;/creatives*,,标签页名=Creatives,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/product/certificate,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Product,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">调用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mytime=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">getTime()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mydate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">getDate()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">New Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ame=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">P_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTestCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13625858585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com.hk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcategories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上传图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag=sendkeys.pressEnter()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">钮</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youmi TD,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返回上一页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增产品检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;product_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productID=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaigns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -332,6 +664,154 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">&lt;host&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/campaign/new,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Campaign,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">New Campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaign_name=C_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">productID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Product#[&lt;productID&gt;]&lt;product_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iTunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://itunes.apple.com/cn/app/id1339119477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存且返回按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://&lt;host&gt;/campaigns,,标签页名=Campaigns,,等待时间=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增推广计划检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;campaign_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*Unrestraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaignID=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增广告订单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">https://</t>
     </r>
     <r>
@@ -340,52 +820,291 @@
         <color rgb="FF0070C0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;host&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/offer/create,,标签页名=New Offer,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">New Offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer_name=O_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/offers*,,标签页名=Offers,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">到Creatives模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">执行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例片段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://&lt;host&gt;/creatives*,,标签页名=Creatives,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增产品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增按钮</t>
+      <t xml:space="preserve">productID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign#[&lt;campaignID&gt;]&lt;campaign_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Step1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media-twitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等待时间=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Step2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Step3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增广告订单检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;offer_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*&lt;campaign_name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ID=innerText</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://&lt;host&gt;/creative*,,标签页名=New Creative,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Creative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creative_name=Cr_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存且提审按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">检查</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;creative_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;offer_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;campaign_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;product_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑产品</t>
   </si>
   <si>
     <r>
@@ -396,7 +1115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/product/certificate,,</t>
+      <t xml:space="preserve">https://&lt;host&gt;/product/certificate?customer_id*,,</t>
     </r>
     <r>
       <rPr>
@@ -440,705 +1159,183 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">调用</t>
-  </si>
-  <si>
+    <t xml:space="preserve">(重命名),,清除文本=否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_product_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTestCompany1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacey1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13625858586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zh.wikipedia.org/wiki/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://&lt;host&gt;/product/censor?customer_id*,,标签页名=Products,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑产品检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_product_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑推广计划</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/campaign/*,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=New Campaign,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">new_campaign_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑推广计划检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_campaign_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_campaign_name=innerText</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://&lt;host&gt;/offer/edit?id*,,</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">mytime=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">getTime()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">mydate=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">getDate()</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">New Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ame=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">P_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoTestCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13625858585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com.hk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pcategories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上传图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag=sendkeys.pressEnter()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">钮</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youmi TD,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返回上一页</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/products,,标签页名=Products,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增产品检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;product_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productID=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaigns</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/campaign/new,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=New Campaign,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">New Campaign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campaign_name=C_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">productID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Product#[&lt;productID&gt;]&lt;product_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iTunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://itunes.apple.com/cn/app/id1339119477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存且返回按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/campaigns,,标签页名=Campaigns,,等待时间=10</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增推广计划检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;campaign_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*Unrestraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campaignID=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增广告订单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/offer/create,,标签页名=New Offer,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">New Offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offer Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offer_name=O_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;campaign</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign#[&lt;campaignID&gt;]&lt;campaign_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Step1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media-twitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">等待时间=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Step2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Step3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增广告订单检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;offer_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*&lt;campaign_name&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID=innerText</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新增广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://&lt;host&gt;/creative*,,标签页名=New Creative,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Creative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creative Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creative_name=Cr_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存且提审按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/creatives*,,标签页名=Creatives,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_013</t>
+      <t xml:space="preserve">标签页名=New Offer,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">new_offer_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告订单检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_offer_name&gt;,,等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*&lt;new_campaign_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_offer_name=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_product_name=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_creative_name=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_021</t>
   </si>
   <si>
     <r>
@@ -1149,7 +1346,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">新增广告</t>
+      <t xml:space="preserve">编辑广告</t>
     </r>
     <r>
       <rPr>
@@ -1157,6 +1354,7 @@
         <color rgb="FF262626"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">创意</t>
     </r>
@@ -1172,439 +1370,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">innerText=&lt;creative_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;offer_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;campaign_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;product_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑产品</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/product/certificate?customer_id*,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=New Product,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(重命名),,清除文本=否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_product_name=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoTestCompany1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacey1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13625858586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zh.wikipedia.org/wiki/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;host&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/product/censor?customer_id*,,标签页名=Products,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑产品检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;new_product_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑推广计划</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/campaign/*,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">标签页名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=New Campaign,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">等待时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">new_campaign_name=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑推广计划检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;new_campaign_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_campaign_name=innerText</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/offer/edit?id*,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=New Offer,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">new_offer_name=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告订单检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;new_offer_name&gt;,,等待时间=2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nnerText=600</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nnerText=0.35</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*&lt;new_campaign_name&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_offer_name=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_product_name=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_creative_name=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_021</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">编辑广告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">创意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">检查</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">innerText=&lt;new_creative_name&gt;,,等待时间=2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">new_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">offer_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">new_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">campaign_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">new_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">product_name&gt;</t>
-    </r>
+    <t xml:space="preserve">innerText=&lt;new_offer_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_campaign_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;new_product_name&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">ADVERTISING_001</t>
@@ -1659,7 +1434,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0_ ;[RED]\-0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1740,40 +1515,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC0504D"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF262626"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1850,7 +1595,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1919,14 +1664,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1951,7 +1688,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2038,8 +1775,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M144" activeCellId="0" sqref="M144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3341,7 +3078,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3354,10 +3091,10 @@
     </row>
     <row r="49" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>34</v>
@@ -3375,7 +3112,7 @@
         <v>73</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3394,16 +3131,16 @@
         <v>2</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
@@ -3414,10 +3151,10 @@
     </row>
     <row r="51" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>34</v>
@@ -3429,7 +3166,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>67</v>
@@ -3459,7 +3196,7 @@
         <v>47</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -3529,17 +3266,17 @@
         <v>35</v>
       </c>
       <c r="F55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
@@ -3563,7 +3300,7 @@
         <v>73</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3586,7 +3323,7 @@
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>30</v>
@@ -3612,7 +3349,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="6"/>
@@ -3636,10 +3373,10 @@
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3662,7 +3399,7 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="6"/>
@@ -3689,7 +3426,7 @@
         <v>47</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3702,10 +3439,10 @@
     </row>
     <row r="62" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>34</v>
@@ -3717,13 +3454,13 @@
         <v>21</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3746,10 +3483,10 @@
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3768,16 +3505,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="4"/>
@@ -3788,10 +3525,10 @@
     </row>
     <row r="65" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>34</v>
@@ -3833,7 +3570,7 @@
         <v>47</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3903,17 +3640,17 @@
         <v>35</v>
       </c>
       <c r="F69" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="4"/>
@@ -3937,7 +3674,7 @@
         <v>73</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -3960,7 +3697,7 @@
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>30</v>
@@ -3986,7 +3723,7 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72" s="16" t="s">
         <v>131</v>
@@ -4186,7 +3923,7 @@
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>141</v>
@@ -4212,7 +3949,7 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="6"/>
@@ -4270,7 +4007,7 @@
         <v>61</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>144</v>
@@ -4296,7 +4033,7 @@
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>145</v>
@@ -4348,7 +4085,7 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>147</v>
@@ -4370,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="13" t="s">
@@ -4613,7 +4350,7 @@
         <v>47</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -4626,10 +4363,10 @@
     </row>
     <row r="97" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>34</v>
@@ -4647,7 +4384,7 @@
         <v>155</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -4670,10 +4407,10 @@
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -4696,10 +4433,10 @@
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -4725,7 +4462,7 @@
         <v>73</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -4738,10 +4475,10 @@
     </row>
     <row r="101" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>34</v>
@@ -4783,7 +4520,7 @@
         <v>47</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -4811,11 +4548,11 @@
         <v>73</v>
       </c>
       <c r="H103" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="I103" s="6"/>
-      <c r="J103" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="4"/>
@@ -4839,7 +4576,7 @@
         <v>76</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -4865,7 +4602,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -4891,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -4917,7 +4654,7 @@
         <v>82</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -4943,7 +4680,7 @@
         <v>84</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -4993,7 +4730,7 @@
         <v>47</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -5043,7 +4780,7 @@
         <v>47</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -5056,10 +4793,10 @@
     </row>
     <row r="113" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>34</v>
@@ -5077,7 +4814,7 @@
         <v>73</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -5090,10 +4827,10 @@
     </row>
     <row r="114" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>34</v>
@@ -5105,10 +4842,10 @@
         <v>27</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="6"/>
@@ -5135,7 +4872,7 @@
         <v>47</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -5157,17 +4894,17 @@
         <v>35</v>
       </c>
       <c r="F116" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="H116" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="4"/>
@@ -5188,7 +4925,7 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="6"/>
@@ -5215,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -5228,10 +4965,10 @@
     </row>
     <row r="119" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>34</v>
@@ -5243,13 +4980,13 @@
         <v>21</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -5262,10 +4999,10 @@
     </row>
     <row r="120" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>34</v>
@@ -5274,18 +5011,18 @@
         <v>1</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="17" t="s">
-        <v>190</v>
+      <c r="J120" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="K120" s="6"/>
       <c r="L120" s="4"/>
@@ -5306,7 +5043,7 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" s="6"/>
@@ -5333,7 +5070,7 @@
         <v>47</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -5355,17 +5092,17 @@
         <v>35</v>
       </c>
       <c r="F123" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H123" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="17" t="s">
-        <v>192</v>
+      <c r="J123" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="4"/>
@@ -5389,7 +5126,7 @@
         <v>139</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -5412,10 +5149,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -5438,7 +5175,7 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="6"/>
@@ -5478,10 +5215,10 @@
     </row>
     <row r="128" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>34</v>
@@ -5496,10 +5233,10 @@
         <v>61</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -5522,10 +5259,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>198</v>
+        <v>112</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -5550,8 +5287,8 @@
       <c r="G130" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H130" s="18" t="s">
-        <v>199</v>
+      <c r="H130" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -5574,10 +5311,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -5590,10 +5327,10 @@
     </row>
     <row r="132" s="9" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>34</v>
@@ -5602,18 +5339,18 @@
         <v>1</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G132" s="18" t="s">
-        <v>128</v>
+      <c r="G132" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="17" t="s">
-        <v>203</v>
+      <c r="J132" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="K132" s="6"/>
       <c r="L132" s="4"/>
@@ -5630,16 +5367,16 @@
         <v>2</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="17" t="s">
-        <v>190</v>
+      <c r="J133" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="4"/>
@@ -5656,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="7" t="s">
@@ -5664,8 +5401,8 @@
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="17" t="s">
-        <v>204</v>
+      <c r="J134" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="K134" s="6"/>
       <c r="L134" s="4"/>
@@ -5685,7 +5422,7 @@
         <v>27</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="18" t="s">
+      <c r="G135" s="13" t="s">
         <v>155</v>
       </c>
       <c r="H135" s="13"/>
@@ -5741,11 +5478,11 @@
         <v>155</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K137" s="6"/>
       <c r="L137" s="4"/>
@@ -5793,7 +5530,7 @@
         <v>47</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -5806,10 +5543,10 @@
     </row>
     <row r="140" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>34</v>
@@ -5827,7 +5564,7 @@
         <v>155</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -5850,10 +5587,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -5876,10 +5613,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -5905,7 +5642,7 @@
         <v>73</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -5917,900 +5654,900 @@
       <c r="P143" s="4"/>
     </row>
     <row r="144" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="C144" s="17"/>
+      <c r="D144" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="19"/>
-      <c r="D144" s="20" t="n">
+      <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+    </row>
+    <row r="145" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="21"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+    </row>
+    <row r="146" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+    </row>
+    <row r="147" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" s="24"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+    </row>
+    <row r="148" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="17"/>
+      <c r="D148" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E148" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F148" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G148" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H144" s="23" t="s">
+      <c r="H148" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I144" s="24"/>
-      <c r="J144" s="24"/>
-      <c r="K144" s="24"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N144" s="19"/>
-      <c r="O144" s="19"/>
-      <c r="P144" s="19"/>
-    </row>
-    <row r="145" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="20" t="n">
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+    </row>
+    <row r="149" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="17"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E149" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F149" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G145" s="21" t="s">
+      <c r="G149" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H149" s="21"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+    </row>
+    <row r="150" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H150" s="21"/>
+      <c r="I150" s="22"/>
+      <c r="J150" s="22"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+    </row>
+    <row r="151" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="17"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H151" s="21"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="23"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+    </row>
+    <row r="152" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="17"/>
+      <c r="D152" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+    </row>
+    <row r="153" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" s="21"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="23"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="17"/>
+    </row>
+    <row r="154" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H154" s="21"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="17"/>
+    </row>
+    <row r="155" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" s="21"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="23"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+    </row>
+    <row r="156" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="D156" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I156" s="22"/>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+    </row>
+    <row r="157" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H157" s="21"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+    </row>
+    <row r="158" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="17"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H158" s="21"/>
+      <c r="I158" s="22"/>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+    </row>
+    <row r="159" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H159" s="21"/>
+      <c r="I159" s="22"/>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+    </row>
+    <row r="160" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="17"/>
+      <c r="D160" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
+    </row>
+    <row r="161" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G161" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H145" s="23"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="25"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-    </row>
-    <row r="146" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="20" t="n">
+      <c r="H161" s="21"/>
+      <c r="I161" s="22"/>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
+    </row>
+    <row r="162" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E162" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F162" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G146" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H146" s="23"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="24"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="25"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-    </row>
-    <row r="147" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="20" t="n">
+      <c r="G162" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H162" s="21"/>
+      <c r="I162" s="22"/>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
+    </row>
+    <row r="163" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="17"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E163" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F163" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G147" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H147" s="26"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="24"/>
-      <c r="K147" s="24"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="25"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-    </row>
-    <row r="148" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20" t="n">
+      <c r="G163" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H163" s="24"/>
+      <c r="I163" s="22"/>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+    </row>
+    <row r="164" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E164" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F164" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G148" s="21" t="s">
+      <c r="G164" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H148" s="23" t="s">
+      <c r="H164" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I164" s="22"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-    </row>
-    <row r="149" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="20" t="n">
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+    </row>
+    <row r="165" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E165" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F165" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G165" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H149" s="23"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="25"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="19"/>
-    </row>
-    <row r="150" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="20" t="n">
+      <c r="H165" s="21"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+    </row>
+    <row r="166" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E166" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F166" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G150" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H150" s="23"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-    </row>
-    <row r="151" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="20" t="n">
+      <c r="G166" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H166" s="21"/>
+      <c r="I166" s="22"/>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+    </row>
+    <row r="167" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="17"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E167" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F167" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G151" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H151" s="23"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="25"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-    </row>
-    <row r="152" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C152" s="19"/>
-      <c r="D152" s="20" t="n">
+      <c r="G167" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H167" s="21"/>
+      <c r="I167" s="22"/>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
+    </row>
+    <row r="168" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="17"/>
+      <c r="D168" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E168" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F168" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G152" s="21" t="s">
+      <c r="G168" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H168" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I168" s="22"/>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-    </row>
-    <row r="153" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="20" t="n">
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
+      <c r="P168" s="17"/>
+    </row>
+    <row r="169" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="17"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E169" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F169" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G169" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H153" s="23"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="25"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-    </row>
-    <row r="154" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="20" t="n">
+      <c r="H169" s="21"/>
+      <c r="I169" s="22"/>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="23"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="17"/>
+    </row>
+    <row r="170" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E170" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F170" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G154" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H154" s="23"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="25"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-    </row>
-    <row r="155" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="20" t="n">
+      <c r="G170" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H170" s="21"/>
+      <c r="I170" s="22"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="23"/>
+      <c r="N170" s="17"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="17"/>
+    </row>
+    <row r="171" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E171" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="F171" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G155" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H155" s="23"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="25"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-    </row>
-    <row r="156" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="20" t="n">
+      <c r="G171" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H171" s="21"/>
+      <c r="I171" s="22"/>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="23"/>
+      <c r="N171" s="17"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17"/>
+    </row>
+    <row r="172" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="17"/>
+      <c r="D172" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E172" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="F172" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G172" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H156" s="23" t="s">
+      <c r="H172" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I172" s="22"/>
+      <c r="J172" s="22"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-    </row>
-    <row r="157" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="20" t="n">
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+    </row>
+    <row r="173" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E173" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F173" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G173" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H157" s="23"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="24"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="25"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-    </row>
-    <row r="158" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="20" t="n">
+      <c r="H173" s="21"/>
+      <c r="I173" s="22"/>
+      <c r="J173" s="22"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="23"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+    </row>
+    <row r="174" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E174" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F174" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G158" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H158" s="23"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-    </row>
-    <row r="159" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="20" t="n">
+      <c r="G174" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H174" s="21"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="22"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="23"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="17"/>
+    </row>
+    <row r="175" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="17"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E175" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F175" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G159" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H159" s="23"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="25"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-    </row>
-    <row r="160" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="19"/>
-      <c r="D160" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F160" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G160" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H160" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-    </row>
-    <row r="161" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G161" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H161" s="23"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-    </row>
-    <row r="162" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="19"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H162" s="23"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-    </row>
-    <row r="163" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F163" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H163" s="26"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="25"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-    </row>
-    <row r="164" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C164" s="19"/>
-      <c r="D164" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F164" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H164" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-    </row>
-    <row r="165" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F165" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H165" s="23"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="25"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-    </row>
-    <row r="166" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="19"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F166" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H166" s="23"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="24"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="25"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-    </row>
-    <row r="167" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F167" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G167" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="H167" s="23"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="25"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-    </row>
-    <row r="168" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C168" s="19"/>
-      <c r="D168" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G168" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H168" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-    </row>
-    <row r="169" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G169" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H169" s="23"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="25"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-    </row>
-    <row r="170" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="19"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F170" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G170" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H170" s="23"/>
-      <c r="I170" s="24"/>
-      <c r="J170" s="24"/>
-      <c r="K170" s="24"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="25"/>
-      <c r="N170" s="19"/>
-      <c r="O170" s="19"/>
-      <c r="P170" s="19"/>
-    </row>
-    <row r="171" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="19"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F171" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G171" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H171" s="23"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="25"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="19"/>
-    </row>
-    <row r="172" s="3" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C172" s="19"/>
-      <c r="D172" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F172" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H172" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I172" s="24"/>
-      <c r="J172" s="24"/>
-      <c r="K172" s="24"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-    </row>
-    <row r="173" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F173" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G173" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H173" s="23"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="24"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-    </row>
-    <row r="174" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F174" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G174" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H174" s="23"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="24"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="25"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-    </row>
-    <row r="175" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="19"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F175" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G175" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H175" s="23"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
+      <c r="G175" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H175" s="21"/>
+      <c r="I175" s="22"/>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="23"/>
+      <c r="N175" s="17"/>
+      <c r="O175" s="17"/>
+      <c r="P175" s="17"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
